--- a/biology/Biologie cellulaire et moléculaire/Bryan_Sykes/Bryan_Sykes.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Bryan_Sykes/Bryan_Sykes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bryan Sykes  né le 9 septembre 1947 et mort le 10 décembre 2020[1], est un professeur de génétique humaine britannique de l'université d'Oxford. Il a édité le premier rapport de recherche sur l'ADN des restes archéologiques (journal Nature en 1989), et a pris part à l'étude du cas de Ötzi, l'homme du glacier autrichien, aussi bien que dans celles de personnes prétendant être membres de la famille russe royale des Romanov. Il est connu pour ses livres de vulgarisation en sciences.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bryan Sykes  né le 9 septembre 1947 et mort le 10 décembre 2020, est un professeur de génétique humaine britannique de l'université d'Oxford. Il a édité le premier rapport de recherche sur l'ADN des restes archéologiques (journal Nature en 1989), et a pris part à l'étude du cas de Ötzi, l'homme du glacier autrichien, aussi bien que dans celles de personnes prétendant être membres de la famille russe royale des Romanov. Il est connu pour ses livres de vulgarisation en sciences.
 </t>
         </is>
       </c>
